--- a/Excel/Validasi/Hasil_Pengujian_Map_3_128_avg_length.xlsx
+++ b/Excel/Validasi/Hasil_Pengujian_Map_3_128_avg_length.xlsx
@@ -626,19 +626,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0006381</v>
+        <v>0.0005914</v>
       </c>
       <c r="D2">
-        <v>0.0038852</v>
+        <v>0.003805100000000001</v>
       </c>
       <c r="E2">
-        <v>0.0297294</v>
+        <v>0.02975870000000001</v>
       </c>
       <c r="F2">
-        <v>0.2248328</v>
+        <v>0.2243632</v>
       </c>
       <c r="G2">
-        <v>0.06477137500000001</v>
+        <v>0.06462960000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -649,19 +649,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.0002604</v>
+        <v>0.0002717</v>
       </c>
       <c r="D3">
-        <v>0.0011663</v>
+        <v>0.001183</v>
       </c>
       <c r="E3">
-        <v>0.0052115</v>
+        <v>0.0051504</v>
       </c>
       <c r="F3">
-        <v>0.022247</v>
+        <v>0.0219339</v>
       </c>
       <c r="G3">
-        <v>0.0072213</v>
+        <v>0.00713475</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -672,19 +672,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0004287</v>
+        <v>0.0004195</v>
       </c>
       <c r="D4">
-        <v>0.0012502</v>
+        <v>0.0012577</v>
       </c>
       <c r="E4">
-        <v>0.0048488</v>
+        <v>0.004695099999999999</v>
       </c>
       <c r="F4">
-        <v>0.0388714</v>
+        <v>0.0380442</v>
       </c>
       <c r="G4">
-        <v>0.011349775</v>
+        <v>0.011104125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -695,19 +695,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.000452</v>
+        <v>0.0004524</v>
       </c>
       <c r="D5">
-        <v>0.0027395</v>
+        <v>0.0026728</v>
       </c>
       <c r="E5">
-        <v>0.0186037</v>
+        <v>0.018626</v>
       </c>
       <c r="F5">
-        <v>0.1261311</v>
+        <v>0.1253619</v>
       </c>
       <c r="G5">
-        <v>0.036981575</v>
+        <v>0.036778275</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -718,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0004476999999999999</v>
+        <v>0.0004586</v>
       </c>
       <c r="D6">
-        <v>0.001405</v>
+        <v>0.001398</v>
       </c>
       <c r="E6">
-        <v>0.0052569</v>
+        <v>0.0050564</v>
       </c>
       <c r="F6">
-        <v>0.0210266</v>
+        <v>0.0205862</v>
       </c>
       <c r="G6">
-        <v>0.00703405</v>
+        <v>0.006874799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -741,19 +741,19 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.0006508</v>
+        <v>0.0006463</v>
       </c>
       <c r="D7">
-        <v>0.003958</v>
+        <v>0.0038302</v>
       </c>
       <c r="E7">
-        <v>0.0299584</v>
+        <v>0.0296858</v>
       </c>
       <c r="F7">
-        <v>0.2243739</v>
+        <v>0.223795</v>
       </c>
       <c r="G7">
-        <v>0.06473527500000001</v>
+        <v>0.064489325</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.0005901</v>
+        <v>0.0005737</v>
       </c>
       <c r="D8">
-        <v>0.0038111</v>
+        <v>0.0037454</v>
       </c>
       <c r="E8">
-        <v>0.028357</v>
+        <v>0.028206</v>
       </c>
       <c r="F8">
-        <v>0.2120382</v>
+        <v>0.2119598</v>
       </c>
       <c r="G8">
-        <v>0.06119910000000001</v>
+        <v>0.06112122499999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -787,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.0003994</v>
+        <v>0.0004062</v>
       </c>
       <c r="D9">
-        <v>0.0011204</v>
+        <v>0.0010988</v>
       </c>
       <c r="E9">
-        <v>0.0034573</v>
+        <v>0.0033801</v>
       </c>
       <c r="F9">
-        <v>0.0129181</v>
+        <v>0.0126698</v>
       </c>
       <c r="G9">
-        <v>0.0044738</v>
+        <v>0.004388725</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -810,19 +810,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0003078999999999999</v>
+        <v>0.0003114</v>
       </c>
       <c r="D10">
-        <v>0.001484</v>
+        <v>0.0014929</v>
       </c>
       <c r="E10">
-        <v>0.006740499999999999</v>
+        <v>0.006343300000000001</v>
       </c>
       <c r="F10">
-        <v>0.0273578</v>
+        <v>0.0269066</v>
       </c>
       <c r="G10">
-        <v>0.008972549999999999</v>
+        <v>0.008763549999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -833,19 +833,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.0003221</v>
+        <v>0.0003051</v>
       </c>
       <c r="D11">
-        <v>0.0012707</v>
+        <v>0.0012741</v>
       </c>
       <c r="E11">
-        <v>0.0068139</v>
+        <v>0.0053764</v>
       </c>
       <c r="F11">
-        <v>0.0231428</v>
+        <v>0.0228973</v>
       </c>
       <c r="G11">
-        <v>0.007887374999999999</v>
+        <v>0.007463225</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -856,19 +856,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0003513</v>
+        <v>0.0003507</v>
       </c>
       <c r="D12">
-        <v>0.0013903</v>
+        <v>0.0013986</v>
       </c>
       <c r="E12">
-        <v>0.005291</v>
+        <v>0.005228500000000001</v>
       </c>
       <c r="F12">
-        <v>0.0231542</v>
+        <v>0.0227903</v>
       </c>
       <c r="G12">
-        <v>0.007546700000000001</v>
+        <v>0.007442025</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -879,19 +879,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.0004928999999999999</v>
+        <v>0.0004394000000000001</v>
       </c>
       <c r="D13">
-        <v>0.0013464</v>
+        <v>0.0013513</v>
       </c>
       <c r="E13">
-        <v>0.005120700000000001</v>
+        <v>0.004957</v>
       </c>
       <c r="F13">
-        <v>0.03948140000000001</v>
+        <v>0.03903519999999999</v>
       </c>
       <c r="G13">
-        <v>0.01161035</v>
+        <v>0.011445725</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -902,19 +902,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.0004989</v>
+        <v>0.0004438</v>
       </c>
       <c r="D14">
-        <v>0.0013104</v>
+        <v>0.001317</v>
       </c>
       <c r="E14">
-        <v>0.005044600000000001</v>
+        <v>0.0049015</v>
       </c>
       <c r="F14">
-        <v>0.03288609999999999</v>
+        <v>0.03227380000000001</v>
       </c>
       <c r="G14">
-        <v>0.009934999999999999</v>
+        <v>0.009734025000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -925,19 +925,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0007621000000000001</v>
+        <v>0.0004275</v>
       </c>
       <c r="D15">
-        <v>0.0013781</v>
+        <v>0.0013331</v>
       </c>
       <c r="E15">
-        <v>0.0058206</v>
+        <v>0.0056214</v>
       </c>
       <c r="F15">
-        <v>0.0327942</v>
+        <v>0.0315685</v>
       </c>
       <c r="G15">
-        <v>0.01018875</v>
+        <v>0.009737625</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -948,19 +948,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.000498</v>
+        <v>0.0004996</v>
       </c>
       <c r="D16">
-        <v>0.0027985</v>
+        <v>0.0027619</v>
       </c>
       <c r="E16">
-        <v>0.0186772</v>
+        <v>0.0186439</v>
       </c>
       <c r="F16">
-        <v>0.1270472</v>
+        <v>0.1260309</v>
       </c>
       <c r="G16">
-        <v>0.037255225</v>
+        <v>0.036984075</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -971,19 +971,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0008293999999999999</v>
+        <v>0.0004639</v>
       </c>
       <c r="D17">
-        <v>0.0029144</v>
+        <v>0.0028879</v>
       </c>
       <c r="E17">
-        <v>0.018293</v>
+        <v>0.0178973</v>
       </c>
       <c r="F17">
-        <v>0.1152915</v>
+        <v>0.1143249</v>
       </c>
       <c r="G17">
-        <v>0.034332075</v>
+        <v>0.0338935</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -994,19 +994,19 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0003536</v>
+        <v>0.0003618</v>
       </c>
       <c r="D18">
-        <v>0.0011441</v>
+        <v>0.0009571</v>
       </c>
       <c r="E18">
-        <v>0.0033459</v>
+        <v>0.003013</v>
       </c>
       <c r="F18">
-        <v>0.0108955</v>
+        <v>0.0107975</v>
       </c>
       <c r="G18">
-        <v>0.003934775</v>
+        <v>0.00378235</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1017,19 +1017,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>0.0003208</v>
+        <v>0.0003118</v>
       </c>
       <c r="D19">
-        <v>0.0006734</v>
+        <v>0.0006669</v>
       </c>
       <c r="E19">
-        <v>0.0025646</v>
+        <v>0.0024747</v>
       </c>
       <c r="F19">
-        <v>0.0092418</v>
+        <v>0.008995400000000001</v>
       </c>
       <c r="G19">
-        <v>0.00320015</v>
+        <v>0.0031122</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1040,19 +1040,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.0003776</v>
+        <v>0.0004029</v>
       </c>
       <c r="D20">
-        <v>0.0011739</v>
+        <v>0.0011866</v>
       </c>
       <c r="E20">
-        <v>0.0039788</v>
+        <v>0.0038961</v>
       </c>
       <c r="F20">
-        <v>0.0153662</v>
+        <v>0.0147949</v>
       </c>
       <c r="G20">
-        <v>0.005224125</v>
+        <v>0.005070125000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1063,19 +1063,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>0.0005036999999999999</v>
+        <v>0.0004939</v>
       </c>
       <c r="D21">
-        <v>0.001451</v>
+        <v>0.0014488</v>
       </c>
       <c r="E21">
-        <v>0.0052435</v>
+        <v>0.005144</v>
       </c>
       <c r="F21">
-        <v>0.0212116</v>
+        <v>0.0208315</v>
       </c>
       <c r="G21">
-        <v>0.00710245</v>
+        <v>0.006979550000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1086,19 +1086,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0004772999999999999</v>
+        <v>0.0004522</v>
       </c>
       <c r="D22">
-        <v>0.0014108</v>
+        <v>0.0013975</v>
       </c>
       <c r="E22">
-        <v>0.0049714</v>
+        <v>0.0049699</v>
       </c>
       <c r="F22">
-        <v>0.0189732</v>
+        <v>0.0186989</v>
       </c>
       <c r="G22">
-        <v>0.006458175</v>
+        <v>0.006379625</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1109,19 +1109,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.0006442</v>
+        <v>0.0006191000000000001</v>
       </c>
       <c r="D23">
-        <v>0.0039202</v>
+        <v>0.0038284</v>
       </c>
       <c r="E23">
-        <v>0.0283599</v>
+        <v>0.0282388</v>
       </c>
       <c r="F23">
-        <v>0.2128509</v>
+        <v>0.2121102</v>
       </c>
       <c r="G23">
-        <v>0.06144380000000001</v>
+        <v>0.061199125</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1132,19 +1132,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>0.0004234</v>
+        <v>0.0004171</v>
       </c>
       <c r="D24">
-        <v>0.0012259</v>
+        <v>0.0012131</v>
       </c>
       <c r="E24">
-        <v>0.0037653</v>
+        <v>0.0036339</v>
       </c>
       <c r="F24">
-        <v>0.0137294</v>
+        <v>0.0134493</v>
       </c>
       <c r="G24">
-        <v>0.004786</v>
+        <v>0.00467835</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1155,19 +1155,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.0004174000000000001</v>
+        <v>0.0004269</v>
       </c>
       <c r="D25">
-        <v>0.0012255</v>
+        <v>0.0012131</v>
       </c>
       <c r="E25">
-        <v>0.003757299999999999</v>
+        <v>0.0034827</v>
       </c>
       <c r="F25">
-        <v>0.0141542</v>
+        <v>0.0136862</v>
       </c>
       <c r="G25">
-        <v>0.0048886</v>
+        <v>0.004702225</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1178,19 +1178,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.0004344</v>
+        <v>0.0004447</v>
       </c>
       <c r="D26">
-        <v>0.0012714</v>
+        <v>0.0012749</v>
       </c>
       <c r="E26">
-        <v>0.0041863</v>
+        <v>0.004038000000000001</v>
       </c>
       <c r="F26">
-        <v>0.0165128</v>
+        <v>0.0156348</v>
       </c>
       <c r="G26">
-        <v>0.005601225</v>
+        <v>0.0053481</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1201,19 +1201,19 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>0.0003567</v>
+        <v>0.0003541</v>
       </c>
       <c r="D27">
-        <v>0.0015943</v>
+        <v>0.0015437</v>
       </c>
       <c r="E27">
-        <v>0.006737499999999999</v>
+        <v>0.006577899999999999</v>
       </c>
       <c r="F27">
-        <v>0.0296032</v>
+        <v>0.0277541</v>
       </c>
       <c r="G27">
-        <v>0.009572924999999999</v>
+        <v>0.009057450000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1224,19 +1224,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.0003718</v>
+        <v>0.0003646</v>
       </c>
       <c r="D28">
-        <v>0.0016398</v>
+        <v>0.0015867</v>
       </c>
       <c r="E28">
-        <v>0.006525</v>
+        <v>0.006358</v>
       </c>
       <c r="F28">
-        <v>0.0275327</v>
+        <v>0.0264056</v>
       </c>
       <c r="G28">
-        <v>0.009017325</v>
+        <v>0.008678725</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1247,19 +1247,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.0003919</v>
+        <v>0.0003893000000000001</v>
       </c>
       <c r="D29">
-        <v>0.0014957</v>
+        <v>0.0014827</v>
       </c>
       <c r="E29">
-        <v>0.005597</v>
+        <v>0.005843</v>
       </c>
       <c r="F29">
-        <v>0.0238229</v>
+        <v>0.0234511</v>
       </c>
       <c r="G29">
-        <v>0.007826875</v>
+        <v>0.007791525</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1270,19 +1270,19 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.0004944000000000001</v>
+        <v>0.0005120999999999999</v>
       </c>
       <c r="D30">
-        <v>0.0014052</v>
+        <v>0.001398</v>
       </c>
       <c r="E30">
-        <v>0.0051877</v>
+        <v>0.0051314</v>
       </c>
       <c r="F30">
-        <v>0.0341635</v>
+        <v>0.0328823</v>
       </c>
       <c r="G30">
-        <v>0.0103127</v>
+        <v>0.009980949999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1293,19 +1293,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>0.0005011000000000001</v>
+        <v>0.0004598</v>
       </c>
       <c r="D31">
-        <v>0.0014847</v>
+        <v>0.0014379</v>
       </c>
       <c r="E31">
-        <v>0.0060466</v>
+        <v>0.005847199999999999</v>
       </c>
       <c r="F31">
-        <v>0.0330394</v>
+        <v>0.0325215</v>
       </c>
       <c r="G31">
-        <v>0.01026795</v>
+        <v>0.0100666</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1316,19 +1316,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.0004635999999999999</v>
+        <v>0.0004541</v>
       </c>
       <c r="D32">
-        <v>0.0014009</v>
+        <v>0.0013855</v>
       </c>
       <c r="E32">
-        <v>0.0056425</v>
+        <v>0.0055382</v>
       </c>
       <c r="F32">
-        <v>0.0310415</v>
+        <v>0.0301725</v>
       </c>
       <c r="G32">
-        <v>0.009637125</v>
+        <v>0.009387575</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1339,19 +1339,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>0.0008897</v>
+        <v>0.0005053999999999999</v>
       </c>
       <c r="D33">
-        <v>0.0030686</v>
+        <v>0.0029744</v>
       </c>
       <c r="E33">
-        <v>0.0183376</v>
+        <v>0.0183395</v>
       </c>
       <c r="F33">
-        <v>0.1158031</v>
+        <v>0.1149911</v>
       </c>
       <c r="G33">
-        <v>0.03452475</v>
+        <v>0.0342026</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1362,19 +1362,19 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>0.0003589</v>
+        <v>0.0003438</v>
       </c>
       <c r="D34">
-        <v>0.0010386</v>
+        <v>0.0009783999999999999</v>
       </c>
       <c r="E34">
-        <v>0.0034276</v>
+        <v>0.0033655</v>
       </c>
       <c r="F34">
-        <v>0.0127785</v>
+        <v>0.012399</v>
       </c>
       <c r="G34">
-        <v>0.004400900000000001</v>
+        <v>0.004271675000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1385,19 +1385,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>0.000376</v>
+        <v>0.0003766</v>
       </c>
       <c r="D35">
-        <v>0.0012747</v>
+        <v>0.0013138</v>
       </c>
       <c r="E35">
-        <v>0.0029501</v>
+        <v>0.0029817</v>
       </c>
       <c r="F35">
-        <v>0.0114619</v>
+        <v>0.0112662</v>
       </c>
       <c r="G35">
-        <v>0.004015675</v>
+        <v>0.003984575</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1408,19 +1408,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>0.0004088</v>
+        <v>0.0003968999999999999</v>
       </c>
       <c r="D36">
-        <v>0.001737</v>
+        <v>0.0011502</v>
       </c>
       <c r="E36">
-        <v>0.0031601</v>
+        <v>0.0030831</v>
       </c>
       <c r="F36">
-        <v>0.0110894</v>
+        <v>0.0108686</v>
       </c>
       <c r="G36">
-        <v>0.004098825</v>
+        <v>0.0038747</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1431,19 +1431,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>0.0003447</v>
+        <v>0.0003399</v>
       </c>
       <c r="D37">
-        <v>0.0014154</v>
+        <v>0.0011378</v>
       </c>
       <c r="E37">
-        <v>0.004116000000000001</v>
+        <v>0.004116399999999999</v>
       </c>
       <c r="F37">
-        <v>0.0214921</v>
+        <v>0.0210795</v>
       </c>
       <c r="G37">
-        <v>0.006842050000000001</v>
+        <v>0.0066684</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1454,19 +1454,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.0003474</v>
+        <v>0.0003416</v>
       </c>
       <c r="D38">
-        <v>0.0007306</v>
+        <v>0.0007455</v>
       </c>
       <c r="E38">
-        <v>0.0026707</v>
+        <v>0.0025635</v>
       </c>
       <c r="F38">
-        <v>0.009469399999999999</v>
+        <v>0.009144099999999999</v>
       </c>
       <c r="G38">
-        <v>0.003304525</v>
+        <v>0.003198675</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1477,19 +1477,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>0.0003274</v>
+        <v>0.0003249</v>
       </c>
       <c r="D39">
-        <v>0.0006657</v>
+        <v>0.0006692</v>
       </c>
       <c r="E39">
-        <v>0.0026183</v>
+        <v>0.0024692</v>
       </c>
       <c r="F39">
-        <v>0.009329</v>
+        <v>0.0090197</v>
       </c>
       <c r="G39">
-        <v>0.0032351</v>
+        <v>0.00312075</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1500,19 +1500,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>0.0003222</v>
+        <v>0.0002982</v>
       </c>
       <c r="D40">
-        <v>0.0008008000000000002</v>
+        <v>0.000724</v>
       </c>
       <c r="E40">
-        <v>0.0021334</v>
+        <v>0.0020174</v>
       </c>
       <c r="F40">
-        <v>0.008735099999999999</v>
+        <v>0.0085758</v>
       </c>
       <c r="G40">
-        <v>0.002997875</v>
+        <v>0.00290385</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1523,19 +1523,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>0.0004295</v>
+        <v>0.0004123</v>
       </c>
       <c r="D41">
-        <v>0.0012525</v>
+        <v>0.0012535</v>
       </c>
       <c r="E41">
-        <v>0.0040638</v>
+        <v>0.0040108</v>
       </c>
       <c r="F41">
-        <v>0.0163005</v>
+        <v>0.0150234</v>
       </c>
       <c r="G41">
-        <v>0.005511575</v>
+        <v>0.005175000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1546,19 +1546,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>0.0003874</v>
+        <v>0.0003877</v>
       </c>
       <c r="D42">
-        <v>0.0012976</v>
+        <v>0.0012249</v>
       </c>
       <c r="E42">
-        <v>0.0037797</v>
+        <v>0.0037012</v>
       </c>
       <c r="F42">
-        <v>0.014389</v>
+        <v>0.0140005</v>
       </c>
       <c r="G42">
-        <v>0.004963425</v>
+        <v>0.004828575</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1569,19 +1569,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>0.0004995000000000001</v>
+        <v>0.0005020000000000001</v>
       </c>
       <c r="D43">
-        <v>0.0014735</v>
+        <v>0.0014654</v>
       </c>
       <c r="E43">
-        <v>0.005072699999999999</v>
+        <v>0.004994699999999999</v>
       </c>
       <c r="F43">
-        <v>0.0192525</v>
+        <v>0.0187753</v>
       </c>
       <c r="G43">
-        <v>0.006574549999999999</v>
+        <v>0.006434349999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1592,19 +1592,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>0.0004576</v>
+        <v>0.0004674</v>
       </c>
       <c r="D44">
-        <v>0.0013311</v>
+        <v>0.0012957</v>
       </c>
       <c r="E44">
-        <v>0.00393</v>
+        <v>0.0037837</v>
       </c>
       <c r="F44">
-        <v>0.0148995</v>
+        <v>0.0144103</v>
       </c>
       <c r="G44">
-        <v>0.00515455</v>
+        <v>0.004989275</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1615,19 +1615,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>0.0004727999999999999</v>
+        <v>0.0004758</v>
       </c>
       <c r="D45">
-        <v>0.0013584</v>
+        <v>0.0013593</v>
       </c>
       <c r="E45">
-        <v>0.0044642</v>
+        <v>0.0042342</v>
       </c>
       <c r="F45">
-        <v>0.0172261</v>
+        <v>0.0164799</v>
       </c>
       <c r="G45">
-        <v>0.005880374999999999</v>
+        <v>0.0056373</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1638,19 +1638,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>0.0004701999999999999</v>
+        <v>0.0004544999999999999</v>
       </c>
       <c r="D46">
-        <v>0.0012873</v>
+        <v>0.001308</v>
       </c>
       <c r="E46">
-        <v>0.004311000000000001</v>
+        <v>0.0041232</v>
       </c>
       <c r="F46">
-        <v>0.0161161</v>
+        <v>0.0153006</v>
       </c>
       <c r="G46">
-        <v>0.005546150000000001</v>
+        <v>0.005296575</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1661,19 +1661,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>0.0004073</v>
+        <v>0.0004086</v>
       </c>
       <c r="D47">
-        <v>0.0017005</v>
+        <v>0.0016903</v>
       </c>
       <c r="E47">
-        <v>0.006826</v>
+        <v>0.006644600000000001</v>
       </c>
       <c r="F47">
-        <v>0.0280745</v>
+        <v>0.0272774</v>
       </c>
       <c r="G47">
-        <v>0.009252075</v>
+        <v>0.009005224999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1684,19 +1684,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>0.0004969</v>
+        <v>0.0004901</v>
       </c>
       <c r="D48">
-        <v>0.0014713</v>
+        <v>0.0014552</v>
       </c>
       <c r="E48">
-        <v>0.0059062</v>
+        <v>0.005725099999999999</v>
       </c>
       <c r="F48">
-        <v>0.0315532</v>
+        <v>0.0309024</v>
       </c>
       <c r="G48">
-        <v>0.009856899999999998</v>
+        <v>0.009643200000000001</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1707,19 +1707,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0.0003924999999999999</v>
+        <v>0.0003855</v>
       </c>
       <c r="D49">
-        <v>0.0010793</v>
+        <v>0.0014495</v>
       </c>
       <c r="E49">
-        <v>0.0035539</v>
+        <v>0.003502</v>
       </c>
       <c r="F49">
-        <v>0.0129917</v>
+        <v>0.012658</v>
       </c>
       <c r="G49">
-        <v>0.00450435</v>
+        <v>0.004498749999999999</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1730,19 +1730,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>0.0004096</v>
+        <v>0.0004071</v>
       </c>
       <c r="D50">
-        <v>0.0008794</v>
+        <v>0.0013606</v>
       </c>
       <c r="E50">
-        <v>0.004357600000000001</v>
+        <v>0.004187700000000001</v>
       </c>
       <c r="F50">
-        <v>0.0159094</v>
+        <v>0.0155244</v>
       </c>
       <c r="G50">
-        <v>0.005389</v>
+        <v>0.00536995</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1753,19 +1753,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>0.0004367</v>
+        <v>0.0004605000000000001</v>
       </c>
       <c r="D51">
-        <v>0.0010749</v>
+        <v>0.00103</v>
       </c>
       <c r="E51">
-        <v>0.0031659</v>
+        <v>0.0030911</v>
       </c>
       <c r="F51">
-        <v>0.0117332</v>
+        <v>0.0115095</v>
       </c>
       <c r="G51">
-        <v>0.004102675</v>
+        <v>0.004022775</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1776,19 +1776,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>0.000416</v>
+        <v>0.0004148</v>
       </c>
       <c r="D52">
-        <v>0.0013495</v>
+        <v>0.0014373</v>
       </c>
       <c r="E52">
-        <v>0.0030464</v>
+        <v>0.003085</v>
       </c>
       <c r="F52">
-        <v>0.011579</v>
+        <v>0.0114287</v>
       </c>
       <c r="G52">
-        <v>0.004097725</v>
+        <v>0.00409145</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1799,19 +1799,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0.0004037</v>
+        <v>0.0003947</v>
       </c>
       <c r="D53">
-        <v>0.0009104000000000001</v>
+        <v>0.000917</v>
       </c>
       <c r="E53">
-        <v>0.0029852</v>
+        <v>0.0029235</v>
       </c>
       <c r="F53">
-        <v>0.0147113</v>
+        <v>0.0143697</v>
       </c>
       <c r="G53">
-        <v>0.00475265</v>
+        <v>0.004651225</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1822,19 +1822,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>0.000388</v>
+        <v>0.000393</v>
       </c>
       <c r="D54">
-        <v>0.0012144</v>
+        <v>0.0011881</v>
       </c>
       <c r="E54">
-        <v>0.0042963</v>
+        <v>0.0042031</v>
       </c>
       <c r="F54">
-        <v>0.0215173</v>
+        <v>0.0213751</v>
       </c>
       <c r="G54">
-        <v>0.006853999999999999</v>
+        <v>0.006789825</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1845,19 +1845,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.0003571000000000001</v>
+        <v>0.0003595</v>
       </c>
       <c r="D55">
-        <v>0.0007494</v>
+        <v>0.0007592</v>
       </c>
       <c r="E55">
-        <v>0.0030214</v>
+        <v>0.0025756</v>
       </c>
       <c r="F55">
-        <v>0.009449500000000001</v>
+        <v>0.009144299999999999</v>
       </c>
       <c r="G55">
-        <v>0.00339435</v>
+        <v>0.00320965</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1868,19 +1868,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>0.0003412</v>
+        <v>0.0003463</v>
       </c>
       <c r="D56">
-        <v>0.0008724</v>
+        <v>0.0007559999999999999</v>
       </c>
       <c r="E56">
-        <v>0.0021622</v>
+        <v>0.0021701</v>
       </c>
       <c r="F56">
-        <v>0.008942400000000001</v>
+        <v>0.008711599999999998</v>
       </c>
       <c r="G56">
-        <v>0.00307955</v>
+        <v>0.002996</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1891,19 +1891,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>0.0003162</v>
+        <v>0.0003092</v>
       </c>
       <c r="D57">
-        <v>0.0008504</v>
+        <v>0.0007329999999999999</v>
       </c>
       <c r="E57">
-        <v>0.0020765</v>
+        <v>0.0019907</v>
       </c>
       <c r="F57">
-        <v>0.008672000000000001</v>
+        <v>0.0085609</v>
       </c>
       <c r="G57">
-        <v>0.002978775</v>
+        <v>0.00289845</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1914,19 +1914,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>0.0004332999999999999</v>
+        <v>0.0004246</v>
       </c>
       <c r="D58">
-        <v>0.0013333</v>
+        <v>0.00126</v>
       </c>
       <c r="E58">
-        <v>0.003852199999999999</v>
+        <v>0.0038092</v>
       </c>
       <c r="F58">
-        <v>0.014374</v>
+        <v>0.0141655</v>
       </c>
       <c r="G58">
-        <v>0.0049982</v>
+        <v>0.004914825</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1937,19 +1937,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>0.0005139999999999999</v>
+        <v>0.0005392</v>
       </c>
       <c r="D59">
-        <v>0.0014286</v>
+        <v>0.0013931</v>
       </c>
       <c r="E59">
-        <v>0.0045487</v>
+        <v>0.0043406</v>
       </c>
       <c r="F59">
-        <v>0.0168467</v>
+        <v>0.0162938</v>
       </c>
       <c r="G59">
-        <v>0.005834499999999999</v>
+        <v>0.005641675000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1960,19 +1960,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>0.0004543</v>
+        <v>0.0004412</v>
       </c>
       <c r="D60">
-        <v>0.0009402000000000001</v>
+        <v>0.0012108</v>
       </c>
       <c r="E60">
-        <v>0.0044174</v>
+        <v>0.0043237</v>
       </c>
       <c r="F60">
-        <v>0.01609</v>
+        <v>0.0156312</v>
       </c>
       <c r="G60">
-        <v>0.005475475</v>
+        <v>0.005401725</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1983,19 +1983,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>0.0004759</v>
+        <v>0.0004574</v>
       </c>
       <c r="D61">
-        <v>0.0011498</v>
+        <v>0.0010906</v>
       </c>
       <c r="E61">
-        <v>0.0033059</v>
+        <v>0.003174300000000001</v>
       </c>
       <c r="F61">
-        <v>0.0119106</v>
+        <v>0.0117327</v>
       </c>
       <c r="G61">
-        <v>0.00421055</v>
+        <v>0.004113749999999999</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2006,19 +2006,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>0.000462</v>
+        <v>0.0004398</v>
       </c>
       <c r="D62">
-        <v>0.001124</v>
+        <v>0.0011071</v>
       </c>
       <c r="E62">
-        <v>0.0028503</v>
+        <v>0.0027353</v>
       </c>
       <c r="F62">
-        <v>0.0126791</v>
+        <v>0.0124596</v>
       </c>
       <c r="G62">
-        <v>0.004278850000000001</v>
+        <v>0.004185449999999999</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2029,19 +2029,19 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>0.0004495000000000001</v>
+        <v>0.0004350000000000001</v>
       </c>
       <c r="D63">
-        <v>0.0009809</v>
+        <v>0.0009707</v>
       </c>
       <c r="E63">
-        <v>0.0030563</v>
+        <v>0.0030463</v>
       </c>
       <c r="F63">
-        <v>0.0149593</v>
+        <v>0.0145481</v>
       </c>
       <c r="G63">
-        <v>0.0048615</v>
+        <v>0.004750025</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2052,19 +2052,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>0.0003704</v>
+        <v>0.0003492</v>
       </c>
       <c r="D64">
-        <v>0.0008336999999999999</v>
+        <v>0.0008776000000000001</v>
       </c>
       <c r="E64">
-        <v>0.0028407</v>
+        <v>0.0021052</v>
       </c>
       <c r="F64">
-        <v>0.0089354</v>
+        <v>0.008714299999999999</v>
       </c>
       <c r="G64">
-        <v>0.00324505</v>
+        <v>0.003011575</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2075,19 +2075,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>0.0005244</v>
+        <v>0.0005185000000000001</v>
       </c>
       <c r="D65">
-        <v>0.0012291</v>
+        <v>0.0012325</v>
       </c>
       <c r="E65">
-        <v>0.00297</v>
+        <v>0.0028352</v>
       </c>
       <c r="F65">
-        <v>0.0129149</v>
+        <v>0.0126508</v>
       </c>
       <c r="G65">
-        <v>0.0044096</v>
+        <v>0.00430925</v>
       </c>
     </row>
   </sheetData>
